--- a/biology/Médecine/Laboratoire_Urgo/Laboratoire_Urgo.xlsx
+++ b/biology/Médecine/Laboratoire_Urgo/Laboratoire_Urgo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Groupe Urgo est un groupe pharmaceutique français, qui regroupe des sociétés pharmaceutiques présentes dans une vingtaine de pays. 
@@ -514,17 +526,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1880 : création de l’entreprise par Eugène Fournier et Pierre Bon, à Dijon[réf. souhaitée].
-1958 : création de la marque Urgo par Jean Le Lous[4]
-1979 : lancement du slogan « Y a de l’Urgo dans l’air… »[5]
+1958 : création de la marque Urgo par Jean Le Lous
+1979 : lancement du slogan « Y a de l’Urgo dans l’air… »
 1991 : création d’une filiale en  Allemagne
 2002 : acquisition de Parema au  Royaume-Uni
 2005 : l'entreprise s’installe dans son nouveau centre industriel à Chevigny Saint Sauveur
-2007 : acquisition de Vitafarma en  Espagne[2]
-2008 : acquisition d’Alvityl, entreprise de compléments alimentaires fondée en 1959[6],[7],[8]
-2011 : acquisition de LM Pharma, au  Brésil[2]</t>
+2007 : acquisition de Vitafarma en  Espagne
+2008 : acquisition d’Alvityl, entreprise de compléments alimentaires fondée en 1959
+2011 : acquisition de LM Pharma, au  Brésil</t>
         </is>
       </c>
     </row>
@@ -554,14 +568,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urgo HealthCare
-La marque Urgo développe une gamme de filmogels et de pansements hydrocolloïdes en plus de ses pansements historiques. Ses filmogels permettent de traiter les aphtes, les boutons de fièvre, les crevasses et les boutons d'acné.
+          <t>Urgo HealthCare</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque Urgo développe une gamme de filmogels et de pansements hydrocolloïdes en plus de ses pansements historiques. Ses filmogels permettent de traiter les aphtes, les boutons de fièvre, les crevasses et les boutons d'acné.
 Alvityl développe des compléments alimentaires.
 Immunostim propose des ferments lactiques.
 Humer propose une spécialité pour déboucher le nez en cas de rhume ou sinusite.
 Humex est une gamme de médicaments utilisés contre le rhume.
-Urgo Medical
-Urgo Medical est la division d’Urgo qui propose des produits de cicatrisation de pointe pour les patients gravement blessés ou brûlés. Ce sont des produits sous prescription.
 </t>
         </is>
       </c>
@@ -587,13 +604,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Divisions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Urgo Medical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urgo Medical est la division d’Urgo qui propose des produits de cicatrisation de pointe pour les patients gravement blessés ou brûlés. Ce sont des produits sous prescription.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Europe
- France
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France
  Allemagne
  Belgique
  République tchèque
@@ -603,49 +662,153 @@
  Pays-Bas
  Pologne
  Italie
- Suisse
-Asie
- Chine
+ Suisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Implantation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chine
  Malaisie
  Singapour
  Philippines
  Thaïlande
  Viêt Nam
- Inde
-Amérique
- États-Unis avec Hollister Wound Care
-Afrique
- Algérie</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+ Inde</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Laboratoire_Urgo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Laboratoire_Urgo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Implantation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis avec Hollister Wound Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Implantation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Algérie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_Urgo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Condamnation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2023, les laboratoires Urgo sont condamnés à une amende de 1 125 000 euros, dont 625 000 avec sursis, pour avoir offert depuis 2015 des cadeaux d'un montant total de 55 millions d'euros sous forme d'avantages en nature à des pharmaciens d'officine, en contrepartie de l’abandon de remises commerciales. Des auditions et perquisitions ont été entamées auprès des pharmaciens concernées suite à cette condamnation,[9],[10].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2023, les laboratoires Urgo sont condamnés à une amende de 1 125 000 euros, dont 625 000 avec sursis, pour avoir offert depuis 2015 des cadeaux d'un montant total de 55 millions d'euros sous forme d'avantages en nature à des pharmaciens d'officine, en contrepartie de l’abandon de remises commerciales. Des auditions et perquisitions ont été entamées auprès des pharmaciens concernées suite à cette condamnation.
 </t>
         </is>
       </c>
